--- a/biology/Zoologie/Hemileuca_eglanterina/Hemileuca_eglanterina.xlsx
+++ b/biology/Zoologie/Hemileuca_eglanterina/Hemileuca_eglanterina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hemileuca eglanterina est une espèce de lépidoptères hétérocères de la famille des Saturniidae présente en Amérique du Nord.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hemileuca eglanterina est présent en Californie, notamment à l’ouest de la Sierra Nevada[1] et dans les montagnes côtières comme la chaîne des Cascades[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hemileuca eglanterina est présent en Californie, notamment à l’ouest de la Sierra Nevada et dans les montagnes côtières comme la chaîne des Cascades.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’espèce vole de jour et est présente durant l’été[1]. La chenille se nourrit des plantes des espèces Ceanothus, Rhamnus et de Rosacées[1],[2].
-Son envergure varie entre 55 et 85 mm. Ses ailes sont roses avec une marque jaune au milieu[1]. Les chenilles sont noires avec des épines jaunes devenant orange le temps passant. La tête de la chenille est orange-brun[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’espèce vole de jour et est présente durant l’été. La chenille se nourrit des plantes des espèces Ceanothus, Rhamnus et de Rosacées,.
+Son envergure varie entre 55 et 85 mm. Ses ailes sont roses avec une marque jaune au milieu. Les chenilles sont noires avec des épines jaunes devenant orange le temps passant. La tête de la chenille est orange-brun.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (7 juillet 2023)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (7 juillet 2023) :
 Hemileuca eglanterina annulata Ferguson, 1971
 Hemileuca eglanterina eglanterina Boisduval, 1852
 Hemileuca eglanterina shastaensis (Grote, 1880)
@@ -608,10 +626,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Hemileuca eglanterina Boisduval, 1852[3].
-Hemileuca eglanterina a pour synonymes[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Hemileuca eglanterina Boisduval, 1852.
+Hemileuca eglanterina a pour synonymes :
 Hemileuca boisduvali Oberthür, 1914
 Hemileuca denudata Neumoegen, 1891
 Hemileuca eglanteriae Herrich-Schäffer, 1858
